--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Promantus\eclipse-workspace\HireProUs_Automation!\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCloned\Practice_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF643CBA-EC0A-42B2-A0BC-B2845A6EAEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7643863-A3FD-4BDE-9FEA-7AA385129D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>UserName</t>
   </si>
@@ -117,28 +117,73 @@
     <t>USD</t>
   </si>
   <si>
-    <t>REC02024000051</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>REC_MANAGER</t>
-  </si>
-  <si>
-    <t>BU_HEAD</t>
-  </si>
-  <si>
-    <t>INTERVIEWER</t>
-  </si>
-  <si>
     <t>Kamal1@promantusinc.com</t>
   </si>
   <si>
     <t>interviewer@promantus.com</t>
   </si>
   <si>
-    <t>REC02024000052</t>
+    <t>Reason For Shortlist</t>
+  </si>
+  <si>
+    <t>Resume Shortlisted, Go Ahead.</t>
+  </si>
+  <si>
+    <t>InterviewerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aakash A</t>
+  </si>
+  <si>
+    <t>Mode Of Interview</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>InterviewStartsFrom</t>
+  </si>
+  <si>
+    <t>InterviewDuration</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>Asia/Kolkata, India Time</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>InterviewVenue</t>
+  </si>
+  <si>
+    <t>IITM Campus</t>
+  </si>
+  <si>
+    <t>InterviewRemarks</t>
+  </si>
+  <si>
+    <t>Good to go with Round 1 interview</t>
+  </si>
+  <si>
+    <t>11:30AM</t>
+  </si>
+  <si>
+    <t>InterviewResultStatus</t>
+  </si>
+  <si>
+    <t>Go Ahead</t>
+  </si>
+  <si>
+    <t>InterviewProcessRemarks</t>
+  </si>
+  <si>
+    <t>Candidate performed good in  Round 1 interview</t>
+  </si>
+  <si>
+    <t>REC02024000085</t>
   </si>
 </sst>
 </file>
@@ -148,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +211,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -203,19 +255,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -501,17 +563,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.42578125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -519,12 +580,9 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -532,36 +590,27 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -582,8 +631,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="mailto:haritha1@promantus.com" xr:uid="{01ED36AA-64B1-4770-AE65-4BE3149679B8}"/>
-    <hyperlink ref="D2" r:id="rId2" display="mailto:Pro@123" xr:uid="{88A75845-CB21-4B05-8696-F8EC9D855BF3}"/>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:haritha1@promantus.com" xr:uid="{01ED36AA-64B1-4770-AE65-4BE3149679B8}"/>
+    <hyperlink ref="C2" r:id="rId2" display="mailto:Pro@123" xr:uid="{88A75845-CB21-4B05-8696-F8EC9D855BF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -591,29 +640,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E85E3BE-1F5B-4C73-8C36-2608D9B9D3DF}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="31.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="16.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="14.42578125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="5" width="13.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="5" width="28.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="5" width="34.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="5" width="16.74609375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="5" width="14.5703125" collapsed="true"/>
-    <col min="13" max="16384" style="5" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="13.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="34.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22" style="5" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.28515625" style="14" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="29.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="22.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="23.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="23" max="16384" width="8.7109375" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -650,8 +709,38 @@
       <c r="L1" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -661,7 +750,7 @@
       <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -676,20 +765,51 @@
       <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>36</v>
+      <c r="K2" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="M2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>